--- a/natmiOut/OldD0/LR-pairs_lrc2p/Pdgfd-Pdgfrb.xlsx
+++ b/natmiOut/OldD0/LR-pairs_lrc2p/Pdgfd-Pdgfrb.xlsx
@@ -528,52 +528,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>5.40577544071916</v>
+        <v>12.39269</v>
       </c>
       <c r="H2">
-        <v>5.40577544071916</v>
+        <v>37.17807</v>
       </c>
       <c r="I2">
-        <v>0.4173397360729602</v>
+        <v>0.6136856461363306</v>
       </c>
       <c r="J2">
-        <v>0.4173397360729602</v>
+        <v>0.6136856461363306</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>2.89129417765006</v>
+        <v>5.188906999999999</v>
       </c>
       <c r="N2">
-        <v>2.89129417765006</v>
+        <v>15.566721</v>
       </c>
       <c r="O2">
-        <v>0.01463732288707686</v>
+        <v>0.02571200377994867</v>
       </c>
       <c r="P2">
-        <v>0.01463732288707686</v>
+        <v>0.02571200377994868</v>
       </c>
       <c r="Q2">
-        <v>15.62968705743499</v>
+        <v>64.30451588983</v>
       </c>
       <c r="R2">
-        <v>15.62968705743499</v>
+        <v>578.74064300847</v>
       </c>
       <c r="S2">
-        <v>0.006108736470507359</v>
+        <v>0.01577908765315757</v>
       </c>
       <c r="T2">
-        <v>0.006108736470507359</v>
+        <v>0.01577908765315758</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,52 +590,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>5.40577544071916</v>
+        <v>12.39269</v>
       </c>
       <c r="H3">
-        <v>5.40577544071916</v>
+        <v>37.17807</v>
       </c>
       <c r="I3">
-        <v>0.4173397360729602</v>
+        <v>0.6136856461363306</v>
       </c>
       <c r="J3">
-        <v>0.4173397360729602</v>
+        <v>0.6136856461363306</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>67.1797773612841</v>
+        <v>67.633555</v>
       </c>
       <c r="N3">
-        <v>67.1797773612841</v>
+        <v>202.900665</v>
       </c>
       <c r="O3">
-        <v>0.3401010178487853</v>
+        <v>0.3351369029761694</v>
       </c>
       <c r="P3">
-        <v>0.3401010178487853</v>
+        <v>0.3351369029761695</v>
       </c>
       <c r="Q3">
-        <v>363.1587905726106</v>
+        <v>838.16168071295</v>
       </c>
       <c r="R3">
-        <v>363.1587905726106</v>
+        <v>7543.455126416549</v>
       </c>
       <c r="S3">
-        <v>0.1419376690271572</v>
+        <v>0.2056687068470593</v>
       </c>
       <c r="T3">
-        <v>0.1419376690271572</v>
+        <v>0.2056687068470593</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,52 +652,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>5.40577544071916</v>
+        <v>12.39269</v>
       </c>
       <c r="H4">
-        <v>5.40577544071916</v>
+        <v>37.17807</v>
       </c>
       <c r="I4">
-        <v>0.4173397360729602</v>
+        <v>0.6136856461363306</v>
       </c>
       <c r="J4">
-        <v>0.4173397360729602</v>
+        <v>0.6136856461363306</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>127.457820865479</v>
+        <v>128.9862746666667</v>
       </c>
       <c r="N4">
-        <v>127.457820865479</v>
+        <v>386.958824</v>
       </c>
       <c r="O4">
-        <v>0.6452616592641379</v>
+        <v>0.6391510932438819</v>
       </c>
       <c r="P4">
-        <v>0.6452616592641379</v>
+        <v>0.6391510932438819</v>
       </c>
       <c r="Q4">
-        <v>689.0083577621884</v>
+        <v>1598.486916198853</v>
       </c>
       <c r="R4">
-        <v>689.0083577621884</v>
+        <v>14386.38224578968</v>
       </c>
       <c r="S4">
-        <v>0.2692933305752957</v>
+        <v>0.3922378516361137</v>
       </c>
       <c r="T4">
-        <v>0.2692933305752957</v>
+        <v>0.3922378516361137</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,52 +714,52 @@
         <v>20</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>3.57593473308542</v>
+        <v>3.644292666666666</v>
       </c>
       <c r="H5">
-        <v>3.57593473308542</v>
+        <v>10.932878</v>
       </c>
       <c r="I5">
-        <v>0.2760713377915419</v>
+        <v>0.1804652662055796</v>
       </c>
       <c r="J5">
-        <v>0.2760713377915419</v>
+        <v>0.1804652662055796</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>2.89129417765006</v>
+        <v>5.188906999999999</v>
       </c>
       <c r="N5">
-        <v>2.89129417765006</v>
+        <v>15.566721</v>
       </c>
       <c r="O5">
-        <v>0.01463732288707686</v>
+        <v>0.02571200377994867</v>
       </c>
       <c r="P5">
-        <v>0.01463732288707686</v>
+        <v>0.02571200377994868</v>
       </c>
       <c r="Q5">
-        <v>10.3390792734265</v>
+        <v>18.90989572811533</v>
       </c>
       <c r="R5">
-        <v>10.3390792734265</v>
+        <v>170.189061553038</v>
       </c>
       <c r="S5">
-        <v>0.004040945311122065</v>
+        <v>0.004640123606827306</v>
       </c>
       <c r="T5">
-        <v>0.004040945311122065</v>
+        <v>0.004640123606827307</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,52 +776,52 @@
         <v>21</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>3.57593473308542</v>
+        <v>3.644292666666666</v>
       </c>
       <c r="H6">
-        <v>3.57593473308542</v>
+        <v>10.932878</v>
       </c>
       <c r="I6">
-        <v>0.2760713377915419</v>
+        <v>0.1804652662055796</v>
       </c>
       <c r="J6">
-        <v>0.2760713377915419</v>
+        <v>0.1804652662055796</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>67.1797773612841</v>
+        <v>67.633555</v>
       </c>
       <c r="N6">
-        <v>67.1797773612841</v>
+        <v>202.900665</v>
       </c>
       <c r="O6">
-        <v>0.3401010178487853</v>
+        <v>0.3351369029761694</v>
       </c>
       <c r="P6">
-        <v>0.3401010178487853</v>
+        <v>0.3351369029761695</v>
       </c>
       <c r="Q6">
-        <v>240.2304992271614</v>
+        <v>246.4764685070967</v>
       </c>
       <c r="R6">
-        <v>240.2304992271614</v>
+        <v>2218.28821656387</v>
       </c>
       <c r="S6">
-        <v>0.09389214298177923</v>
+        <v>0.06048057041090792</v>
       </c>
       <c r="T6">
-        <v>0.09389214298177923</v>
+        <v>0.06048057041090794</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,52 +838,52 @@
         <v>22</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>3.57593473308542</v>
+        <v>3.644292666666666</v>
       </c>
       <c r="H7">
-        <v>3.57593473308542</v>
+        <v>10.932878</v>
       </c>
       <c r="I7">
-        <v>0.2760713377915419</v>
+        <v>0.1804652662055796</v>
       </c>
       <c r="J7">
-        <v>0.2760713377915419</v>
+        <v>0.1804652662055796</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>127.457820865479</v>
+        <v>128.9862746666667</v>
       </c>
       <c r="N7">
-        <v>127.457820865479</v>
+        <v>386.958824</v>
       </c>
       <c r="O7">
-        <v>0.6452616592641379</v>
+        <v>0.6391510932438819</v>
       </c>
       <c r="P7">
-        <v>0.6452616592641379</v>
+        <v>0.6391510932438819</v>
       </c>
       <c r="Q7">
-        <v>455.7808486362459</v>
+        <v>470.0637348683858</v>
       </c>
       <c r="R7">
-        <v>455.7808486362459</v>
+        <v>4230.573613815472</v>
       </c>
       <c r="S7">
-        <v>0.1781382494986407</v>
+        <v>0.1153445721878444</v>
       </c>
       <c r="T7">
-        <v>0.1781382494986407</v>
+        <v>0.1153445721878444</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,52 +900,52 @@
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>3.97122714193214</v>
+        <v>4.156890333333333</v>
       </c>
       <c r="H8">
-        <v>3.97122714193214</v>
+        <v>12.470671</v>
       </c>
       <c r="I8">
-        <v>0.3065889261354979</v>
+        <v>0.2058490876580898</v>
       </c>
       <c r="J8">
-        <v>0.3065889261354979</v>
+        <v>0.2058490876580898</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>2.89129417765006</v>
+        <v>5.188906999999999</v>
       </c>
       <c r="N8">
-        <v>2.89129417765006</v>
+        <v>15.566721</v>
       </c>
       <c r="O8">
-        <v>0.01463732288707686</v>
+        <v>0.02571200377994867</v>
       </c>
       <c r="P8">
-        <v>0.01463732288707686</v>
+        <v>0.02571200377994868</v>
       </c>
       <c r="Q8">
-        <v>11.48198591359428</v>
+        <v>21.56971734886566</v>
       </c>
       <c r="R8">
-        <v>11.48198591359428</v>
+        <v>194.127456139791</v>
       </c>
       <c r="S8">
-        <v>0.004487641105447442</v>
+        <v>0.005292792519963791</v>
       </c>
       <c r="T8">
-        <v>0.004487641105447442</v>
+        <v>0.005292792519963793</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,52 +962,52 @@
         <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>3.97122714193214</v>
+        <v>4.156890333333333</v>
       </c>
       <c r="H9">
-        <v>3.97122714193214</v>
+        <v>12.470671</v>
       </c>
       <c r="I9">
-        <v>0.3065889261354979</v>
+        <v>0.2058490876580898</v>
       </c>
       <c r="J9">
-        <v>0.3065889261354979</v>
+        <v>0.2058490876580898</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>67.1797773612841</v>
+        <v>67.633555</v>
       </c>
       <c r="N9">
-        <v>67.1797773612841</v>
+        <v>202.900665</v>
       </c>
       <c r="O9">
-        <v>0.3401010178487853</v>
+        <v>0.3351369029761694</v>
       </c>
       <c r="P9">
-        <v>0.3401010178487853</v>
+        <v>0.3351369029761695</v>
       </c>
       <c r="Q9">
-        <v>266.7861552460897</v>
+        <v>281.1452709884683</v>
       </c>
       <c r="R9">
-        <v>266.7861552460897</v>
+        <v>2530.307438896215</v>
       </c>
       <c r="S9">
-        <v>0.1042712058398489</v>
+        <v>0.06898762571820224</v>
       </c>
       <c r="T9">
-        <v>0.1042712058398489</v>
+        <v>0.06898762571820227</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,52 +1024,52 @@
         <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>3.97122714193214</v>
+        <v>4.156890333333333</v>
       </c>
       <c r="H10">
-        <v>3.97122714193214</v>
+        <v>12.470671</v>
       </c>
       <c r="I10">
-        <v>0.3065889261354979</v>
+        <v>0.2058490876580898</v>
       </c>
       <c r="J10">
-        <v>0.3065889261354979</v>
+        <v>0.2058490876580898</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>127.457820865479</v>
+        <v>128.9862746666667</v>
       </c>
       <c r="N10">
-        <v>127.457820865479</v>
+        <v>386.958824</v>
       </c>
       <c r="O10">
-        <v>0.6452616592641379</v>
+        <v>0.6391510932438819</v>
       </c>
       <c r="P10">
-        <v>0.6452616592641379</v>
+        <v>0.6391510932438819</v>
       </c>
       <c r="Q10">
-        <v>506.1639576725148</v>
+        <v>536.1817982945449</v>
       </c>
       <c r="R10">
-        <v>506.1639576725148</v>
+        <v>4825.636184650903</v>
       </c>
       <c r="S10">
-        <v>0.1978300791902016</v>
+        <v>0.1315686694199238</v>
       </c>
       <c r="T10">
-        <v>0.1978300791902016</v>
+        <v>0.1315686694199238</v>
       </c>
     </row>
   </sheetData>
